--- a/CinemaManagement/CinemaManagement/Excel_Statistic/xuatfileExcel_2012202082427CH.xlsx
+++ b/CinemaManagement/CinemaManagement/Excel_Statistic/xuatfileExcel_2012202082427CH.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TienGiang\Nam3Ky1\HeQuanTriCSDL\CinemaManagement_DBMS\CinemaManagement_DBMS\CinemaManagement\CinemaManagement\Excel_Statistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TÀI LIỆU NĂM 3\Hệ quản trị CSDL\LTWD_project\final_project\code\CinemaManagement_DBMS\CinemaManagement\CinemaManagement\Excel_Statistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE7F44E-2EE6-4D21-858C-D066959B181C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{C206012E-1F23-4716-8117-0261B79A511F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tên Phim</t>
   </si>
@@ -64,12 +63,15 @@
   </si>
   <si>
     <t>Siêu sao siêu ngố</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -415,14 +417,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574B8D00-7F6F-43E8-8BAF-F67BDB167D31}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -456,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -473,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -490,7 +494,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -507,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -522,6 +526,11 @@
       </c>
       <c r="E6">
         <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
